--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.66403533333334</v>
+        <v>49.793692</v>
       </c>
       <c r="H2">
-        <v>106.992106</v>
+        <v>149.381076</v>
       </c>
       <c r="I2">
-        <v>0.156262048309444</v>
+        <v>0.1907694353905069</v>
       </c>
       <c r="J2">
-        <v>0.156262048309444</v>
+        <v>0.1907694353905068</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N2">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O2">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P2">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q2">
-        <v>2.004663538074889</v>
+        <v>5.705411023052</v>
       </c>
       <c r="R2">
-        <v>18.041971842674</v>
+        <v>51.34869920746801</v>
       </c>
       <c r="S2">
-        <v>0.0005264229822231614</v>
+        <v>0.001456641014184242</v>
       </c>
       <c r="T2">
-        <v>0.0005264229822231612</v>
+        <v>0.001456641014184242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.66403533333334</v>
+        <v>49.793692</v>
       </c>
       <c r="H3">
-        <v>106.992106</v>
+        <v>149.381076</v>
       </c>
       <c r="I3">
-        <v>0.156262048309444</v>
+        <v>0.1907694353905069</v>
       </c>
       <c r="J3">
-        <v>0.156262048309444</v>
+        <v>0.1907694353905068</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P3">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q3">
-        <v>529.7696177692217</v>
+        <v>739.6578915315027</v>
       </c>
       <c r="R3">
-        <v>4767.926559922995</v>
+        <v>6656.921023783525</v>
       </c>
       <c r="S3">
-        <v>0.1391170621804763</v>
+        <v>0.1888410873321242</v>
       </c>
       <c r="T3">
-        <v>0.1391170621804763</v>
+        <v>0.1888410873321241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.66403533333334</v>
+        <v>49.793692</v>
       </c>
       <c r="H4">
-        <v>106.992106</v>
+        <v>149.381076</v>
       </c>
       <c r="I4">
-        <v>0.156262048309444</v>
+        <v>0.1907694353905069</v>
       </c>
       <c r="J4">
-        <v>0.156262048309444</v>
+        <v>0.1907694353905068</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N4">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q4">
-        <v>62.48694441952157</v>
+        <v>1.84759494166</v>
       </c>
       <c r="R4">
-        <v>562.3824997756941</v>
+        <v>16.62835447494</v>
       </c>
       <c r="S4">
-        <v>0.0164090197714309</v>
+        <v>0.0004717070441984824</v>
       </c>
       <c r="T4">
-        <v>0.0164090197714309</v>
+        <v>0.0004717070441984824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.66403533333334</v>
+        <v>32.48004233333333</v>
       </c>
       <c r="H5">
-        <v>106.992106</v>
+        <v>97.44012699999999</v>
       </c>
       <c r="I5">
-        <v>0.156262048309444</v>
+        <v>0.1244374355167269</v>
       </c>
       <c r="J5">
-        <v>0.156262048309444</v>
+        <v>0.1244374355167269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N5">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q5">
-        <v>0.7979590145597779</v>
+        <v>3.721595730595666</v>
       </c>
       <c r="R5">
-        <v>7.181631131038</v>
+        <v>33.494361575361</v>
       </c>
       <c r="S5">
-        <v>0.0002095433753136487</v>
+        <v>0.0009501557306731502</v>
       </c>
       <c r="T5">
-        <v>0.0002095433753136486</v>
+        <v>0.0009501557306731501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>97.44012699999999</v>
       </c>
       <c r="I6">
-        <v>0.1423113760612615</v>
+        <v>0.1244374355167269</v>
       </c>
       <c r="J6">
-        <v>0.1423113760612615</v>
+        <v>0.1244374355167269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N6">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O6">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P6">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q6">
-        <v>1.825692352875889</v>
+        <v>482.4731540117025</v>
       </c>
       <c r="R6">
-        <v>16.431231175883</v>
+        <v>4342.258386105323</v>
       </c>
       <c r="S6">
-        <v>0.0004794252974471179</v>
+        <v>0.1231795889089744</v>
       </c>
       <c r="T6">
-        <v>0.0004794252974471179</v>
+        <v>0.1231795889089744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>97.44012699999999</v>
       </c>
       <c r="I7">
-        <v>0.1423113760612615</v>
+        <v>0.1244374355167269</v>
       </c>
       <c r="J7">
-        <v>0.1423113760612615</v>
+        <v>0.1244374355167269</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N7">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O7">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P7">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q7">
-        <v>482.4731540117025</v>
+        <v>1.205171970778333</v>
       </c>
       <c r="R7">
-        <v>4342.258386105323</v>
+        <v>10.846547737005</v>
       </c>
       <c r="S7">
-        <v>0.1266970500303312</v>
+        <v>0.0003076908770793346</v>
       </c>
       <c r="T7">
-        <v>0.1266970500303312</v>
+        <v>0.0003076908770793345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.48004233333333</v>
+        <v>56.11531066666667</v>
       </c>
       <c r="H8">
-        <v>97.44012699999999</v>
+        <v>168.345932</v>
       </c>
       <c r="I8">
-        <v>0.1423113760612615</v>
+        <v>0.2149888008433455</v>
       </c>
       <c r="J8">
-        <v>0.1423113760612615</v>
+        <v>0.2149888008433455</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,43 +933,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.752099666666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N8">
-        <v>5.256299</v>
+        <v>0.343743</v>
       </c>
       <c r="O8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q8">
-        <v>56.90827134555256</v>
+        <v>6.429748411497333</v>
       </c>
       <c r="R8">
-        <v>512.174442109973</v>
+        <v>57.86773570347601</v>
       </c>
       <c r="S8">
-        <v>0.01494406484973515</v>
+        <v>0.001641570643943357</v>
       </c>
       <c r="T8">
-        <v>0.01494406484973515</v>
+        <v>0.001641570643943357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.48004233333333</v>
+        <v>56.11531066666667</v>
       </c>
       <c r="H9">
-        <v>97.44012699999999</v>
+        <v>168.345932</v>
       </c>
       <c r="I9">
-        <v>0.1423113760612615</v>
+        <v>0.2149888008433455</v>
       </c>
       <c r="J9">
-        <v>0.1423113760612615</v>
+        <v>0.2149888008433455</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02237433333333333</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N9">
-        <v>0.067123</v>
+        <v>44.563349</v>
       </c>
       <c r="O9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q9">
-        <v>0.7267192938467777</v>
+        <v>833.5620578273631</v>
       </c>
       <c r="R9">
-        <v>6.540473644621</v>
+        <v>7502.058520446269</v>
       </c>
       <c r="S9">
-        <v>0.0001908358837480083</v>
+        <v>0.2128156370142884</v>
       </c>
       <c r="T9">
-        <v>0.0001908358837480083</v>
+        <v>0.2128156370142884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.10092333333333</v>
+        <v>56.11531066666667</v>
       </c>
       <c r="H10">
-        <v>141.30277</v>
+        <v>168.345932</v>
       </c>
       <c r="I10">
-        <v>0.206372797933319</v>
+        <v>0.2149888008433455</v>
       </c>
       <c r="J10">
-        <v>0.2063727979333191</v>
+        <v>0.2149888008433455</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05620966666666666</v>
+        <v>0.037105</v>
       </c>
       <c r="N10">
-        <v>0.168629</v>
+        <v>0.111315</v>
       </c>
       <c r="O10">
-        <v>0.003368847317172573</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P10">
-        <v>0.003368847317172572</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q10">
-        <v>2.647527200258889</v>
+        <v>2.082158602286666</v>
       </c>
       <c r="R10">
-        <v>23.82774480233</v>
+        <v>18.73942742058</v>
       </c>
       <c r="S10">
-        <v>0.0006952384466550593</v>
+        <v>0.000531593185113747</v>
       </c>
       <c r="T10">
-        <v>0.0006952384466550593</v>
+        <v>0.000531593185113747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.10092333333333</v>
+        <v>12.647441</v>
       </c>
       <c r="H11">
-        <v>141.30277</v>
+        <v>37.942323</v>
       </c>
       <c r="I11">
-        <v>0.206372797933319</v>
+        <v>0.04845483598012269</v>
       </c>
       <c r="J11">
-        <v>0.2063727979333191</v>
+        <v>0.04845483598012269</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>14.85444966666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N11">
-        <v>44.563349</v>
+        <v>0.343743</v>
       </c>
       <c r="O11">
-        <v>0.8902805491515402</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P11">
-        <v>0.8902805491515401</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q11">
-        <v>699.6582949085256</v>
+        <v>1.449156437221</v>
       </c>
       <c r="R11">
-        <v>6296.924654176731</v>
+        <v>13.042407934989</v>
       </c>
       <c r="S11">
-        <v>0.1837296878740151</v>
+        <v>0.0003699822315861891</v>
       </c>
       <c r="T11">
-        <v>0.1837296878740151</v>
+        <v>0.000369982231586189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.10092333333333</v>
+        <v>12.647441</v>
       </c>
       <c r="H12">
-        <v>141.30277</v>
+        <v>37.942323</v>
       </c>
       <c r="I12">
-        <v>0.206372797933319</v>
+        <v>0.04845483598012269</v>
       </c>
       <c r="J12">
-        <v>0.2063727979333191</v>
+        <v>0.04845483598012269</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.752099666666667</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N12">
-        <v>5.256299</v>
+        <v>44.563349</v>
       </c>
       <c r="O12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q12">
-        <v>82.52551207202556</v>
+        <v>187.8707757466364</v>
       </c>
       <c r="R12">
-        <v>742.7296086482301</v>
+        <v>1690.836981719727</v>
       </c>
       <c r="S12">
-        <v>0.02167113101491761</v>
+        <v>0.04796504164440925</v>
       </c>
       <c r="T12">
-        <v>0.02167113101491761</v>
+        <v>0.04796504164440924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.10092333333333</v>
+        <v>12.647441</v>
       </c>
       <c r="H13">
-        <v>141.30277</v>
+        <v>37.942323</v>
       </c>
       <c r="I13">
-        <v>0.206372797933319</v>
+        <v>0.04845483598012269</v>
       </c>
       <c r="J13">
-        <v>0.2063727979333191</v>
+        <v>0.04845483598012269</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02237433333333333</v>
+        <v>0.037105</v>
       </c>
       <c r="N13">
-        <v>0.067123</v>
+        <v>0.111315</v>
       </c>
       <c r="O13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q13">
-        <v>1.053851758967778</v>
+        <v>0.469283298305</v>
       </c>
       <c r="R13">
-        <v>9.484665830710002</v>
+        <v>4.223549684745</v>
       </c>
       <c r="S13">
-        <v>0.0002767405977312772</v>
+        <v>0.0001198121041272597</v>
       </c>
       <c r="T13">
-        <v>0.0002767405977312772</v>
+        <v>0.0001198121041272597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.49671366666666</v>
+        <v>57.34728366666667</v>
       </c>
       <c r="H14">
-        <v>61.49014099999999</v>
+        <v>172.041851</v>
       </c>
       <c r="I14">
-        <v>0.08980639546899395</v>
+        <v>0.2197087319066286</v>
       </c>
       <c r="J14">
-        <v>0.08980639546899395</v>
+        <v>0.2197087319066286</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N14">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O14">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P14">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q14">
-        <v>1.152113442965444</v>
+        <v>6.570909109810334</v>
       </c>
       <c r="R14">
-        <v>10.369020986689</v>
+        <v>59.13818198829301</v>
       </c>
       <c r="S14">
-        <v>0.0003025440344406594</v>
+        <v>0.001677610196908572</v>
       </c>
       <c r="T14">
-        <v>0.0003025440344406593</v>
+        <v>0.001677610196908572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.49671366666666</v>
+        <v>57.34728366666667</v>
       </c>
       <c r="H15">
-        <v>61.49014099999999</v>
+        <v>172.041851</v>
       </c>
       <c r="I15">
-        <v>0.08980639546899395</v>
+        <v>0.2197087319066286</v>
       </c>
       <c r="J15">
-        <v>0.08980639546899395</v>
+        <v>0.2197087319066286</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>44.563349</v>
       </c>
       <c r="O15">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P15">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q15">
-        <v>304.4674014935788</v>
+        <v>851.8623387465556</v>
       </c>
       <c r="R15">
-        <v>2740.206613442209</v>
+        <v>7666.761048719</v>
       </c>
       <c r="S15">
-        <v>0.07995288707545632</v>
+        <v>0.2174878577623265</v>
       </c>
       <c r="T15">
-        <v>0.07995288707545632</v>
+        <v>0.2174878577623265</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.49671366666666</v>
+        <v>57.34728366666667</v>
       </c>
       <c r="H16">
-        <v>61.49014099999999</v>
+        <v>172.041851</v>
       </c>
       <c r="I16">
-        <v>0.08980639546899395</v>
+        <v>0.2197087319066286</v>
       </c>
       <c r="J16">
-        <v>0.08980639546899395</v>
+        <v>0.2197087319066286</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N16">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O16">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P16">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q16">
-        <v>35.91228518312878</v>
+        <v>2.127870960451667</v>
       </c>
       <c r="R16">
-        <v>323.210566648159</v>
+        <v>19.150838644065</v>
       </c>
       <c r="S16">
-        <v>0.009430536299725454</v>
+        <v>0.0005432639473934819</v>
       </c>
       <c r="T16">
-        <v>0.009430536299725453</v>
+        <v>0.0005432639473934819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.49671366666666</v>
+        <v>52.63127133333334</v>
       </c>
       <c r="H17">
-        <v>61.49014099999999</v>
+        <v>157.893814</v>
       </c>
       <c r="I17">
-        <v>0.08980639546899395</v>
+        <v>0.2016407603626695</v>
       </c>
       <c r="J17">
-        <v>0.08980639546899395</v>
+        <v>0.2016407603626694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N17">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O17">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P17">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q17">
-        <v>0.4586003038158888</v>
+        <v>6.030543700644667</v>
       </c>
       <c r="R17">
-        <v>4.127402734343</v>
+        <v>54.27489330580201</v>
       </c>
       <c r="S17">
-        <v>0.000120428059371522</v>
+        <v>0.001539650212175324</v>
       </c>
       <c r="T17">
-        <v>0.000120428059371522</v>
+        <v>0.001539650212175324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>47.52510066666667</v>
+        <v>52.63127133333334</v>
       </c>
       <c r="H18">
-        <v>142.575302</v>
+        <v>157.893814</v>
       </c>
       <c r="I18">
-        <v>0.2082313318410385</v>
+        <v>0.2016407603626695</v>
       </c>
       <c r="J18">
-        <v>0.2082313318410385</v>
+        <v>0.2016407603626694</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N18">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O18">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P18">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q18">
-        <v>2.671370066773111</v>
+        <v>781.8085709136764</v>
       </c>
       <c r="R18">
-        <v>24.042330600958</v>
+        <v>7036.277138223088</v>
       </c>
       <c r="S18">
-        <v>0.0007014995636239542</v>
+        <v>0.199602522067629</v>
       </c>
       <c r="T18">
-        <v>0.0007014995636239541</v>
+        <v>0.199602522067629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>47.52510066666667</v>
+        <v>52.63127133333334</v>
       </c>
       <c r="H19">
-        <v>142.575302</v>
+        <v>157.893814</v>
       </c>
       <c r="I19">
-        <v>0.2082313318410385</v>
+        <v>0.2016407603626695</v>
       </c>
       <c r="J19">
-        <v>0.2082313318410385</v>
+        <v>0.2016407603626694</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N19">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O19">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P19">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q19">
-        <v>705.9592157562665</v>
+        <v>1.952883322823334</v>
       </c>
       <c r="R19">
-        <v>6353.632941806398</v>
+        <v>17.57594990541</v>
       </c>
       <c r="S19">
-        <v>0.1853843044619963</v>
+        <v>0.0004985880828650945</v>
       </c>
       <c r="T19">
-        <v>0.1853843044619963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>47.52510066666667</v>
-      </c>
-      <c r="H20">
-        <v>142.575302</v>
-      </c>
-      <c r="I20">
-        <v>0.2082313318410385</v>
-      </c>
-      <c r="J20">
-        <v>0.2082313318410385</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N20">
-        <v>5.256299</v>
-      </c>
-      <c r="O20">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P20">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q20">
-        <v>83.26871303636645</v>
-      </c>
-      <c r="R20">
-        <v>749.418417327298</v>
-      </c>
-      <c r="S20">
-        <v>0.02186629497166577</v>
-      </c>
-      <c r="T20">
-        <v>0.02186629497166577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>47.52510066666667</v>
-      </c>
-      <c r="H21">
-        <v>142.575302</v>
-      </c>
-      <c r="I21">
-        <v>0.2082313318410385</v>
-      </c>
-      <c r="J21">
-        <v>0.2082313318410385</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.067123</v>
-      </c>
-      <c r="O21">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P21">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q21">
-        <v>1.063342444016222</v>
-      </c>
-      <c r="R21">
-        <v>9.570081996146</v>
-      </c>
-      <c r="S21">
-        <v>0.0002792328437524428</v>
-      </c>
-      <c r="T21">
-        <v>0.0002792328437524428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>44.96541199999999</v>
-      </c>
-      <c r="H22">
-        <v>134.896236</v>
-      </c>
-      <c r="I22">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="J22">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.05620966666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.168629</v>
-      </c>
-      <c r="O22">
-        <v>0.003368847317172573</v>
-      </c>
-      <c r="P22">
-        <v>0.003368847317172572</v>
-      </c>
-      <c r="Q22">
-        <v>2.527490820049333</v>
-      </c>
-      <c r="R22">
-        <v>22.747417380444</v>
-      </c>
-      <c r="S22">
-        <v>0.0006637169927826205</v>
-      </c>
-      <c r="T22">
-        <v>0.0006637169927826204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>44.96541199999999</v>
-      </c>
-      <c r="H23">
-        <v>134.896236</v>
-      </c>
-      <c r="I23">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="J23">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.85444966666667</v>
-      </c>
-      <c r="N23">
-        <v>44.563349</v>
-      </c>
-      <c r="O23">
-        <v>0.8902805491515402</v>
-      </c>
-      <c r="P23">
-        <v>0.8902805491515401</v>
-      </c>
-      <c r="Q23">
-        <v>667.9364492949293</v>
-      </c>
-      <c r="R23">
-        <v>6011.428043654364</v>
-      </c>
-      <c r="S23">
-        <v>0.1753995575292648</v>
-      </c>
-      <c r="T23">
-        <v>0.1753995575292648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>44.96541199999999</v>
-      </c>
-      <c r="H24">
-        <v>134.896236</v>
-      </c>
-      <c r="I24">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="J24">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N24">
-        <v>5.256299</v>
-      </c>
-      <c r="O24">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P24">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q24">
-        <v>78.78388337672934</v>
-      </c>
-      <c r="R24">
-        <v>709.0549503905639</v>
-      </c>
-      <c r="S24">
-        <v>0.0206885824232267</v>
-      </c>
-      <c r="T24">
-        <v>0.0206885824232267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>44.96541199999999</v>
-      </c>
-      <c r="H25">
-        <v>134.896236</v>
-      </c>
-      <c r="I25">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="J25">
-        <v>0.197016050385943</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.067123</v>
-      </c>
-      <c r="O25">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P25">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q25">
-        <v>1.006071116558666</v>
-      </c>
-      <c r="R25">
-        <v>9.054640049027999</v>
-      </c>
-      <c r="S25">
-        <v>0.0002641934406688519</v>
-      </c>
-      <c r="T25">
-        <v>0.0002641934406688519</v>
+        <v>0.0004985880828650943</v>
       </c>
     </row>
   </sheetData>
